--- a/0咪咕音乐/咪咕爱唱/咪咕爱唱.xlsx
+++ b/0咪咕音乐/咪咕爱唱/咪咕爱唱.xlsx
@@ -10,14 +10,14 @@
     <sheet name="后台流程类" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">后台流程类!$A$1:$AB$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">后台流程类!$A$1:$AB$53</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="169">
   <si>
     <t>*功能模块</t>
   </si>
@@ -367,7 +367,7 @@
 2、查看返回报文</t>
   </si>
   <si>
-    <t>1、接口请求成功，歌曲按照hotlevel&gt;newhot&gt;hot排序</t>
+    <t>1、接口请求成功，歌曲按照hotlevel&gt;hot&gt;newhot排序</t>
   </si>
   <si>
     <t>数据处理</t>
@@ -457,6 +457,34 @@
 2、查看返回报文</t>
   </si>
   <si>
+    <t>不支持歌手简拼全匹配</t>
+  </si>
+  <si>
+    <t>zjl</t>
+  </si>
+  <si>
+    <t>1、爱唱视频接口搜索zjl
+2、查看返回报文</t>
+  </si>
+  <si>
+    <t>1、请求成功，不返回mv周杰伦</t>
+  </si>
+  <si>
+    <t>不支持歌手全拼全匹配</t>
+  </si>
+  <si>
+    <t>zhoujielun</t>
+  </si>
+  <si>
+    <t>hot&lt;1万和hotlevel=0</t>
+  </si>
+  <si>
+    <t>pengyou</t>
+  </si>
+  <si>
+    <t>1、请求成功，不返回mv朋友（live）</t>
+  </si>
+  <si>
     <t>简拼前缀</t>
   </si>
   <si>
@@ -506,14 +534,18 @@
     <t>1、请求成功，返回mv透明</t>
   </si>
   <si>
-    <t>排序：人工&gt;全匹配&gt;前缀</t>
+    <t>排序：人工&gt;全匹配(hot&gt;newhot)&gt;前缀</t>
+  </si>
+  <si>
+    <t>设置hot：A 《 B
+newhot：A 》 B</t>
   </si>
   <si>
     <t>1、爱唱视频接口搜索mv
 2、查看返回报文</t>
   </si>
   <si>
-    <t>1、请求成功，返回按照人工&gt;全匹配&gt;前缀</t>
+    <t>1、请求成功，返回按照人工&gt;全匹配&gt;前缀，B排在A前面</t>
   </si>
   <si>
     <t>部分内容简拼前缀匹配无法召回，例如输入“chj”无法召回“彩虹金刚”，需要输入“chjg”才可以</t>
@@ -545,8 +577,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -611,6 +643,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -620,22 +659,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,16 +679,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -679,8 +702,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -694,11 +725,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -709,17 +748,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,15 +771,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,7 +808,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,19 +838,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,55 +892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,42 +922,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -926,7 +934,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,13 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,6 +1110,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1092,17 +1139,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,15 +1189,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1141,30 +1197,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1173,10 +1205,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,137 +1217,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1367,12 +1399,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1382,12 +1408,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1422,12 +1442,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1797,12 +1811,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB54"/>
+  <dimension ref="A1:AB57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1887,9 +1901,9 @@
       <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="10" t="s">
@@ -1914,10 +1928,10 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A3" s="10"/>
@@ -1983,20 +1997,20 @@
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="34"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="32"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="14"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A6" s="11"/>
@@ -2014,20 +2028,20 @@
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="34"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="32"/>
+      <c r="M6" s="28"/>
       <c r="N6" s="14"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A7" s="11"/>
@@ -2045,20 +2059,20 @@
       <c r="I7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="34"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="32"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="14"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A8" s="11"/>
@@ -2076,20 +2090,20 @@
       <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="34"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="14" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="32"/>
+      <c r="M8" s="28"/>
       <c r="N8" s="14"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A9" s="11"/>
@@ -2107,20 +2121,20 @@
       <c r="I9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="34"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="32"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="14"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A10" s="11"/>
@@ -2138,20 +2152,20 @@
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="34"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="32"/>
+      <c r="M10" s="28"/>
       <c r="N10" s="14"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A11" s="11"/>
@@ -2169,20 +2183,20 @@
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="34"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="32"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="14"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A12" s="11"/>
@@ -2200,25 +2214,25 @@
       <c r="I12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="34"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="14" t="s">
         <v>46</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="32"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="14"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="13"/>
       <c r="E13" s="16"/>
       <c r="F13" s="13" t="s">
@@ -2231,25 +2245,25 @@
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="34"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="32"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="14"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="16"/>
       <c r="F14" s="13" t="s">
@@ -2262,25 +2276,25 @@
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="34"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="14" t="s">
         <v>51</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="32"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="14"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="16"/>
       <c r="F15" s="13" t="s">
@@ -2293,25 +2307,25 @@
       <c r="I15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="34"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="14" t="s">
         <v>53</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M15" s="32"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="14"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="16"/>
       <c r="F16" s="13" t="s">
@@ -2324,25 +2338,25 @@
       <c r="I16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="34"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="14" t="s">
         <v>56</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="32"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="14"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="16"/>
       <c r="F17" s="13" t="s">
@@ -2355,25 +2369,25 @@
       <c r="I17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="34"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="32"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="14"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="16"/>
       <c r="F18" s="13" t="s">
@@ -2384,25 +2398,25 @@
       <c r="I18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="34"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="14" t="s">
         <v>61</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="32"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="14"/>
       <c r="O18" s="11"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="16"/>
       <c r="F19" s="13" t="s">
@@ -2415,25 +2429,25 @@
       <c r="I19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="34"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="14" t="s">
         <v>64</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="32"/>
+      <c r="M19" s="28"/>
       <c r="N19" s="14"/>
       <c r="O19" s="11"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="16"/>
       <c r="F20" s="13" t="s">
@@ -2446,25 +2460,25 @@
       <c r="I20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="34"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="14" t="s">
         <v>67</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="32"/>
+      <c r="M20" s="28"/>
       <c r="N20" s="14"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="13"/>
       <c r="E21" s="16"/>
       <c r="F21" s="13" t="s">
@@ -2477,25 +2491,25 @@
       <c r="I21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="34"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="14" t="s">
         <v>70</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="32"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="14"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="16"/>
       <c r="F22" s="13" t="s">
@@ -2508,25 +2522,25 @@
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="34"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="14" t="s">
         <v>73</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="32"/>
+      <c r="M22" s="28"/>
       <c r="N22" s="14"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="13"/>
       <c r="E23" s="16"/>
       <c r="F23" s="13" t="s">
@@ -2539,25 +2553,25 @@
       <c r="I23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="14" t="s">
         <v>76</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="M23" s="32"/>
+      <c r="M23" s="28"/>
       <c r="N23" s="14"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="16"/>
       <c r="F24" s="13" t="s">
@@ -2570,25 +2584,25 @@
       <c r="I24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="34"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="14" t="s">
         <v>79</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="M24" s="32"/>
+      <c r="M24" s="28"/>
       <c r="N24" s="14"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="16"/>
       <c r="F25" s="13" t="s">
@@ -2601,7 +2615,7 @@
       <c r="I25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="34" t="s">
+      <c r="J25" s="30" t="s">
         <v>82</v>
       </c>
       <c r="K25" s="14" t="s">
@@ -2610,18 +2624,18 @@
       <c r="L25" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="M25" s="32"/>
+      <c r="M25" s="28"/>
       <c r="N25" s="14"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="16"/>
       <c r="F26" s="13" t="s">
@@ -2634,7 +2648,7 @@
       <c r="I26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="34" t="s">
+      <c r="J26" s="30" t="s">
         <v>86</v>
       </c>
       <c r="K26" s="14" t="s">
@@ -2643,18 +2657,18 @@
       <c r="L26" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="32"/>
+      <c r="M26" s="28"/>
       <c r="N26" s="14"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="16"/>
       <c r="F27" s="13" t="s">
@@ -2667,7 +2681,7 @@
       <c r="I27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="30" t="s">
         <v>90</v>
       </c>
       <c r="K27" s="14" t="s">
@@ -2676,18 +2690,18 @@
       <c r="L27" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="32"/>
+      <c r="M27" s="28"/>
       <c r="N27" s="14"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="16"/>
       <c r="F28" s="13" t="s">
@@ -2700,7 +2714,7 @@
       <c r="I28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="34" t="s">
+      <c r="J28" s="30" t="s">
         <v>94</v>
       </c>
       <c r="K28" s="14" t="s">
@@ -2709,18 +2723,18 @@
       <c r="L28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M28" s="32"/>
+      <c r="M28" s="28"/>
       <c r="N28" s="14"/>
       <c r="O28" s="11"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="16"/>
       <c r="F29" s="13" t="s">
@@ -2733,25 +2747,25 @@
       <c r="I29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="34"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="14" t="s">
         <v>98</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="32"/>
+      <c r="M29" s="28"/>
       <c r="N29" s="14"/>
       <c r="O29" s="11"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="16"/>
       <c r="F30" s="13" t="s">
@@ -2764,7 +2778,7 @@
       <c r="I30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="J30" s="30" t="s">
         <v>101</v>
       </c>
       <c r="K30" s="14" t="s">
@@ -2773,18 +2787,18 @@
       <c r="L30" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="32"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="14"/>
       <c r="O30" s="11"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="13"/>
       <c r="E31" s="16"/>
       <c r="F31" s="13" t="s">
@@ -2797,7 +2811,7 @@
       <c r="I31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="30" t="s">
         <v>105</v>
       </c>
       <c r="K31" s="14" t="s">
@@ -2806,18 +2820,18 @@
       <c r="L31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="32"/>
+      <c r="M31" s="28"/>
       <c r="N31" s="14"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="24" spans="1:20">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D32" s="10"/>
@@ -2839,9 +2853,9 @@
       <c r="T32" s="10"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="13"/>
       <c r="E33" s="16"/>
       <c r="F33" s="13" t="s">
@@ -2854,20 +2868,20 @@
       <c r="I33" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="34"/>
+      <c r="J33" s="30"/>
       <c r="K33" s="14" t="s">
         <v>111</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="M33" s="32"/>
+      <c r="M33" s="28"/>
       <c r="N33" s="14"/>
       <c r="O33" s="11"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="24" spans="1:20">
       <c r="A34" s="10"/>
@@ -2909,14 +2923,14 @@
       <c r="I35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="34"/>
+      <c r="J35" s="30"/>
       <c r="K35" s="14" t="s">
         <v>115</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="M35" s="32"/>
+      <c r="M35" s="28"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
@@ -2926,9 +2940,9 @@
       <c r="T35" s="14"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="45" spans="1:20">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="13"/>
       <c r="E36" s="16"/>
       <c r="F36" s="13" t="s">
@@ -2941,14 +2955,14 @@
       <c r="I36" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="34"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="14" t="s">
         <v>118</v>
       </c>
       <c r="L36" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="M36" s="32"/>
+      <c r="M36" s="28"/>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
@@ -2958,72 +2972,72 @@
       <c r="T36" s="14"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="45" spans="1:20">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="23" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="15" t="s">
         <v>24</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="36"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="L37" s="37" t="s">
+      <c r="L37" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="38"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="45" spans="1:20">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="23" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="21" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J38" s="36"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="L38" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="M38" s="38"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A39" s="10"/>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="22" t="s">
         <v>126</v>
       </c>
       <c r="C39" s="10"/>
@@ -3085,7 +3099,7 @@
       <c r="I41" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="34" t="s">
+      <c r="J41" s="30" t="s">
         <v>128</v>
       </c>
       <c r="K41" s="14" t="s">
@@ -3094,13 +3108,13 @@
       <c r="L41" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="M41" s="32"/>
+      <c r="M41" s="28"/>
       <c r="N41" s="14"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A42" s="13"/>
@@ -3118,7 +3132,7 @@
       <c r="I42" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="J42" s="30" t="s">
         <v>132</v>
       </c>
       <c r="K42" s="14" t="s">
@@ -3127,13 +3141,13 @@
       <c r="L42" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="M42" s="32"/>
+      <c r="M42" s="28"/>
       <c r="N42" s="14"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A43" s="13"/>
@@ -3146,12 +3160,12 @@
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="J43" s="30" t="s">
         <v>135</v>
       </c>
       <c r="K43" s="14" t="s">
@@ -3160,13 +3174,13 @@
       <c r="L43" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M43" s="32"/>
+      <c r="M43" s="28"/>
       <c r="N43" s="14"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A44" s="13"/>
@@ -3184,22 +3198,22 @@
       <c r="I44" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="30" t="s">
         <v>139</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M44" s="32"/>
+      <c r="M44" s="28"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A45" s="13"/>
@@ -3208,7 +3222,7 @@
       <c r="D45" s="13"/>
       <c r="E45" s="16"/>
       <c r="F45" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="15" t="s">
@@ -3217,55 +3231,55 @@
       <c r="I45" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="34" t="s">
+      <c r="J45" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L45" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="K45" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L45" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M45" s="32"/>
+      <c r="M45" s="28"/>
       <c r="N45" s="14"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="90" spans="1:19">
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="16"/>
       <c r="F46" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="34" t="s">
+      <c r="J46" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L46" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="K46" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="L46" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="M46" s="32"/>
+      <c r="M46" s="28"/>
       <c r="N46" s="14"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A47" s="13"/>
@@ -3274,268 +3288,369 @@
       <c r="D47" s="13"/>
       <c r="E47" s="16"/>
       <c r="F47" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M47" s="28"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="30" spans="1:19">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" s="34"/>
-      <c r="K47" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="L47" s="16" t="s">
+      <c r="I48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="M47" s="32"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="30" spans="1:28">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28" t="s">
+      <c r="K48" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M48" s="28"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="90" spans="1:19">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M49" s="28"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="30" spans="1:19">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M50" s="28"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="30" spans="1:28">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="38"/>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="45" spans="1:28">
+      <c r="A52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" s="32"/>
-      <c r="K49" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="L49" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="M49" s="32"/>
-      <c r="N49" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="44"/>
-      <c r="AA49" s="44"/>
-      <c r="AB49" s="44"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="30" spans="1:28">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33" t="s">
+      <c r="I52" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="28"/>
+      <c r="K52" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M52" s="28"/>
+      <c r="N52" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="38"/>
+      <c r="Z52" s="38"/>
+      <c r="AA52" s="38"/>
+      <c r="AB52" s="38"/>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="30" spans="1:28">
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" s="32"/>
-      <c r="K50" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="M50" s="32"/>
-      <c r="N50" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44"/>
-      <c r="AA50" s="44"/>
-      <c r="AB50" s="44"/>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="15.6" spans="1:28">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="44"/>
-      <c r="AB51" s="44"/>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="15.6" spans="1:28">
-      <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="44"/>
-      <c r="Z52" s="44"/>
-      <c r="AA52" s="44"/>
-      <c r="AB52" s="44"/>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="15.6" spans="1:28">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="44"/>
-      <c r="AA53" s="44"/>
-      <c r="AB53" s="44"/>
+      <c r="I53" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="28"/>
+      <c r="K53" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M53" s="28"/>
+      <c r="N53" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="38"/>
+      <c r="AB53" s="38"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="15.6" spans="1:28">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="44"/>
-      <c r="AA54" s="44"/>
-      <c r="AB54" s="44"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="38"/>
+      <c r="Y54" s="38"/>
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="38"/>
+      <c r="AB54" s="38"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="15.6" spans="1:28">
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="38"/>
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="38"/>
+      <c r="AB55" s="38"/>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="15.6" spans="1:28">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="15.6" spans="1:28">
+      <c r="A57" s="26"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="38"/>
+      <c r="AB57" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB50">
+  <autoFilter ref="A1:AB53">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
